--- a/data/trans_bre/P16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,66; 33,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 42,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; 32,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; 71,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,48; 142,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,24; 102,02</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,23%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,71; 13,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,88; 13,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,51; 45,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,52; 26,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,35; 27,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,36; 143,87</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,01%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,27; 18,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,88; 19,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 35,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,32; 30,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,26; 34,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 98,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,25%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,23; 35,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,65; 22,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 43,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,23; 69,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,49; 42,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 160,48</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,66%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; 23,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; 24,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,57; 17,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,79; 33,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,58; 36,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,71; 26,74</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,29%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,09; 5,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 4,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,57; -6,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,56; 6,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 4,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,24; -7,84</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 6,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 9,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 14,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 8,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 14,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 27,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,48</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,96%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,29%</t>
+          <t>-5,28%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 5,32</t>
+          <t>-27,93; 9,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 4,65</t>
+          <t>-14,51; 6,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,57; -6,44</t>
+          <t>-25,82; 18,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 6,09</t>
+          <t>-30,05; 11,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,91</t>
+          <t>-14,59; 6,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,24; -7,84</t>
+          <t>-29,92; 26,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>-36,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>-38,63%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-33,74; 13,22</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; 5,43</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-57,66; -15,69</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-37,79; 14,94</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 5,76</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-59,11; -16,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-10,59; 6,4</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-5,27; 9,67</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-2,15; 14,95</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-13,2; 8,94</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-7,22; 14,57</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-3,02; 27,79</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 33,12</t>
+          <t>-13,79; 31,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 42,76</t>
+          <t>3,18; 42,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 32,72</t>
+          <t>-14,89; 34,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 71,52</t>
+          <t>-19,1; 68,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 142,77</t>
+          <t>5,86; 140,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 102,02</t>
+          <t>-22,9; 110,41</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 13,84</t>
+          <t>-27,73; 14,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 13,83</t>
+          <t>-19,69; 15,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 45,72</t>
+          <t>7,59; 45,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 26,05</t>
+          <t>-35,03; 27,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 27,66</t>
+          <t>-28,62; 30,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 143,87</t>
+          <t>13,8; 141,37</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 18,57</t>
+          <t>-18,28; 18,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 19,67</t>
+          <t>-16,34; 21,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 35,17</t>
+          <t>-5,89; 32,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 30,33</t>
+          <t>-23,0; 28,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 34,76</t>
+          <t>-22,71; 41,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 98,33</t>
+          <t>-10,48; 85,86</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 35,34</t>
+          <t>-17,2; 35,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 22,19</t>
+          <t>-17,87; 25,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 43,84</t>
+          <t>-2,48; 43,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 69,16</t>
+          <t>-20,18; 71,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 42,19</t>
+          <t>-25,58; 48,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 160,48</t>
+          <t>-4,46; 165,47</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 23,34</t>
+          <t>-18,72; 23,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 24,08</t>
+          <t>-25,51; 20,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 17,94</t>
+          <t>-21,73; 18,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 33,41</t>
+          <t>-20,83; 33,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 36,76</t>
+          <t>-31,12; 31,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 26,74</t>
+          <t>-25,12; 26,01</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 9,41</t>
+          <t>-27,02; 9,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 6,46</t>
+          <t>-11,82; 6,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 18,33</t>
+          <t>-27,53; 17,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 11,17</t>
+          <t>-29,31; 11,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 6,96</t>
+          <t>-12,14; 7,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 26,99</t>
+          <t>-30,02; 25,22</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 13,22</t>
+          <t>-34,63; 13,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,43</t>
+          <t>-9,23; 5,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-57,66; -15,69</t>
+          <t>-58,23; -17,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 14,94</t>
+          <t>-39,15; 15,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 5,76</t>
+          <t>-9,49; 5,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -16,89</t>
+          <t>-61,3; -19,22</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 6,4</t>
+          <t>-10,11; 6,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 9,67</t>
+          <t>-5,6; 10,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,95</t>
+          <t>-2,79; 14,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 8,94</t>
+          <t>-12,78; 8,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 14,57</t>
+          <t>-7,45; 16,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 27,79</t>
+          <t>-4,4; 26,8</t>
         </is>
       </c>
     </row>
